--- a/collation.xlsx
+++ b/collation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C9F0FA-B8F0-41F8-88E8-A82B9F5132ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAFC466-4832-4980-A3AB-3684BB8CF960}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,33 +19,601 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="U3" authorId="0" shapeId="0" xr:uid="{2AD8F9A9-F291-4F0B-A572-B20EBAC1A1B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+possible comma after propriety?
+Also, no ParaBreak in Nicolay
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB3" authorId="0" shapeId="0" xr:uid="{E6066AF5-5F4C-4311-886B-5278F76EC736}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC3" authorId="0" shapeId="0" xr:uid="{387460AB-227C-4B27-AF62-0A0A772FDFAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+note- not certain on this. Underline is in light pencil-looking mark</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD3" authorId="0" shapeId="0" xr:uid="{34AADCD7-2564-415F-9989-50F2460029BD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+addition at end is very unclear and in light pencil-looking mark again. Particularly the last inserted word is unclear.
+The next page though begins in pencil with "ted" so it seems that Lincoln did the first page, lost? The second, then went back to resume the second page and changed the final line of the first to improve the continuity.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH3" authorId="0" shapeId="0" xr:uid="{265AE366-F11D-41A2-AFF0-088AE0B2C95D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+this is confusing but a whole line has been left out. The "dedicated" from the reading-text is the one in box AD2 not AG2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM3" authorId="0" shapeId="0" xr:uid="{29F6A31B-5301-40EE-AAC3-F14325590DC6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+very difficult to tell if this is a comma or semicolon - going with semicolon to match Hay draft</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO3" authorId="0" shapeId="0" xr:uid="{481E1C35-DD86-4E42-8DE4-2C323290DD9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+second emendation:
+by the people,] by the people
+third emendation:
+for the people,] for the people</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{F10025CE-1478-47D0-88CD-900B3EB8CF90}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+second emendation:
+as a] as {strike} a</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{6A620342-1A42-473C-BB85-40ECC3C8A11C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+again not sure if the line of the cursive S is just heavy or if there is a comma here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{9EB030EC-51E7-470C-B26D-41EB86C71492}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+second emendation:
+our poor power] our {insert poor} power</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB4" authorId="0" shapeId="0" xr:uid="{A93CA1BE-89BE-4BAC-B197-C5802565A76F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+second emendation
+but it can] but can</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF4" authorId="0" shapeId="0" xr:uid="{C3615935-83B3-4AD4-87E2-E09B22BB958E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+advanced.] carried on.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ4" authorId="0" shapeId="0" xr:uid="{913BD0B8-9239-4559-BC3F-B40556277FE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+second emendation:
+they gave] they here gave {strike "gave"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM4" authorId="0" shapeId="0" xr:uid="{DFD56718-15A6-4BE1-8747-A19BFD7CF4EE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+second emendation:
+nation, under God,] nation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO4" authorId="0" shapeId="0" xr:uid="{5D9CEB56-7E7E-4A7E-8998-F42A1BFCBA68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+that government] that this government</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC5" authorId="0" shapeId="0" xr:uid="{24AB21D0-1E76-479E-B881-4D24AF0C5193}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not totally clear, crammed into end of line</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE5" authorId="0" shapeId="0" xr:uid="{06B848B2-BB1B-4F37-B434-D4D7B1755D7B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+unsure, hard to read</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{F193087A-72AA-40C0-89C3-44EB6300A5CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+the Times reprinted Lincoln's speech along with the opening prayer and running commentary about the day. Everett's speech was printed on page two.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{2310003A-7060-4AA6-B727-E56B5DE11273}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fathers] Fathers
+on this continent] upon this Continent</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q7" authorId="0" shapeId="0" xr:uid="{0A84FF6C-1286-4887-9330-A19A8754C260}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+a final resting place for] the final resting-place of</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA7" authorId="0" shapeId="0" xr:uid="{13AC4BF8-B66C-40F4-9E2A-D296EB323869}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+note,] ~</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC7" authorId="0" shapeId="0" xr:uid="{892919C3-D91E-4EFC-88A6-6E3A8542E5AF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+us] ~,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE7" authorId="0" shapeId="0" xr:uid="{53B7646C-554B-47F4-BD93-7E723394B771}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO7" authorId="0" shapeId="0" xr:uid="{A8F2A34C-33EB-4D25-A558-873FEE478836}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+government] Governments</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="136">
   <si>
     <t>witness</t>
   </si>
   <si>
-    <t>Nicolay</t>
-  </si>
-  <si>
     <t>Hay</t>
   </si>
   <si>
-    <t>Everett</t>
-  </si>
-  <si>
-    <t>Bliss</t>
-  </si>
-  <si>
     <t>MS images</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>Bancroft</t>
-  </si>
-  <si>
     <t>yes?</t>
   </si>
   <si>
@@ -68,13 +636,434 @@
   </si>
   <si>
     <t>PDF to JPG - same text as monument</t>
+  </si>
+  <si>
+    <t>line 1</t>
+  </si>
+  <si>
+    <t>line 2</t>
+  </si>
+  <si>
+    <t>line 3</t>
+  </si>
+  <si>
+    <t>line 4</t>
+  </si>
+  <si>
+    <t>line 5</t>
+  </si>
+  <si>
+    <t>Address delivered at the dedication of the</t>
+  </si>
+  <si>
+    <t>Four score and seven years ago our fathers</t>
+  </si>
+  <si>
+    <t>brought forth on this continent, a new na-</t>
+  </si>
+  <si>
+    <t>tion, conceived in Liberty, and dedicated</t>
+  </si>
+  <si>
+    <t>to the proposition that all men are cre-</t>
+  </si>
+  <si>
+    <t>Now we are engaged in a great civil war,</t>
+  </si>
+  <si>
+    <t>testing whether that nation, or any nation</t>
+  </si>
+  <si>
+    <t>so conceived and so dedicated, can long</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">endure. We are met on a great </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>battle-field</t>
+    </r>
+  </si>
+  <si>
+    <t>of that war. We have come to dedicate a</t>
+  </si>
+  <si>
+    <t>portion of that field, as a final resting</t>
+  </si>
+  <si>
+    <t>that that nation might live. It is alto-</t>
+  </si>
+  <si>
+    <t>gether fitting and proper that we should</t>
+  </si>
+  <si>
+    <t>ated equal.[ParaBreak]</t>
+  </si>
+  <si>
+    <t>do this.[ParaBreak]</t>
+  </si>
+  <si>
+    <r>
+      <t>But, in a larger sense, we can not dedi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[PageBreak]</t>
+    </r>
+  </si>
+  <si>
+    <t>cate_ we can not consecrate_ we can not</t>
+  </si>
+  <si>
+    <t>ing and dead, who struggled here, have con=</t>
+  </si>
+  <si>
+    <t>secrated it, far above our poor power to add</t>
+  </si>
+  <si>
+    <t>or detract. The world will little note, nor</t>
+  </si>
+  <si>
+    <t>long remember what we say here, but it can</t>
+  </si>
+  <si>
+    <t>never forget what they did here. It is for us</t>
+  </si>
+  <si>
+    <t>the living, rather, to be dedicated here to</t>
+  </si>
+  <si>
+    <t>the unfinished work which they who fou=</t>
+  </si>
+  <si>
+    <t>ght here have thus far so nobly advanced.</t>
+  </si>
+  <si>
+    <t>It is rather for us to be here dedicated to</t>
+  </si>
+  <si>
+    <t>the great task remaining before us_ that</t>
+  </si>
+  <si>
+    <t>from these honored dead we take increased</t>
+  </si>
+  <si>
+    <t>devotion to that cause for which they gave</t>
+  </si>
+  <si>
+    <t>the last full measure of devotion_ that</t>
+  </si>
+  <si>
+    <t>we here highly resolve that these dead shall</t>
+  </si>
+  <si>
+    <t>not have died in vain_ that this nation,</t>
+  </si>
+  <si>
+    <t>under God, shall have a new birth of free,</t>
+  </si>
+  <si>
+    <t>dom_ and that government of the people,[PageBreak]</t>
+  </si>
+  <si>
+    <t>by the people, for the people, shall not per=</t>
+  </si>
+  <si>
+    <t>ish from the earth.[ParaBreak][WhiteSpace]</t>
+  </si>
+  <si>
+    <t>November 19, 1863.</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln.</t>
+  </si>
+  <si>
+    <t>brought forth upon this continent, a new nation,</t>
+  </si>
+  <si>
+    <t>But, in a larger sense, we can not dedicate_</t>
+  </si>
+  <si>
+    <t>hallow_ this ground. The brave men, liv=</t>
+  </si>
+  <si>
+    <t>remember] ~,</t>
+  </si>
+  <si>
+    <t>us] ~,</t>
+  </si>
+  <si>
+    <t>the] this</t>
+  </si>
+  <si>
+    <t>here have thus far] here, have, thus far,</t>
+  </si>
+  <si>
+    <t>they gave] they here gave</t>
+  </si>
+  <si>
+    <t>that] ~,</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln.] OMIT</t>
+  </si>
+  <si>
+    <t>November 19, 1863.] OMIT</t>
+  </si>
+  <si>
+    <t>Address . . . the] OMIT</t>
+  </si>
+  <si>
+    <t>forth] ~,</t>
+  </si>
+  <si>
+    <t>any nation] any nation,</t>
+  </si>
+  <si>
+    <t>conceived] ~,</t>
+  </si>
+  <si>
+    <t>met] met here</t>
+  </si>
+  <si>
+    <t>We have come] We {strike} have {strike} come</t>
+  </si>
+  <si>
+    <t>that field,] it</t>
+  </si>
+  <si>
+    <t>for] {strike "of"} for</t>
+  </si>
+  <si>
+    <t>But,] ~</t>
+  </si>
+  <si>
+    <t>hallow_] ~</t>
+  </si>
+  <si>
+    <t>it,] ~</t>
+  </si>
+  <si>
+    <t>rather,] ~</t>
+  </si>
+  <si>
+    <t>unfinished work which] unfinished {insert "work"} which</t>
+  </si>
+  <si>
+    <t>they who fought here have thus far] they have, thus far,</t>
+  </si>
+  <si>
+    <t>before us_] before {insert us_}_</t>
+  </si>
+  <si>
+    <t>that] {strike} that</t>
+  </si>
+  <si>
+    <t>vain_] ~;</t>
+  </si>
+  <si>
+    <t>free,dom_] freedom;</t>
+  </si>
+  <si>
+    <t>Executive Mansion</t>
+  </si>
+  <si>
+    <t>Washington, ______, 186   .</t>
+  </si>
+  <si>
+    <t>forth on this continent,] forth, upon this continent,</t>
+  </si>
+  <si>
+    <t>Liberty] liberty</t>
+  </si>
+  <si>
+    <t>all men are created equal.] "all men are created equal"</t>
+  </si>
+  <si>
+    <t>battle-field] battle field</t>
+  </si>
+  <si>
+    <t>battle-field] battle_field</t>
+  </si>
+  <si>
+    <t>that field] it</t>
+  </si>
+  <si>
+    <t>here gave their lives] died here</t>
+  </si>
+  <si>
+    <t>that that] that the</t>
+  </si>
+  <si>
+    <t>[It is . . . do this] This we may, in all propriety do</t>
+  </si>
+  <si>
+    <t>hallow_ this ground.] hallow, this ground_</t>
+  </si>
+  <si>
+    <t>consecrated] hallowed</t>
+  </si>
+  <si>
+    <t>here, but] here; while</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">did] </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>did</t>
+    </r>
+  </si>
+  <si>
+    <t>It is for us the living, rather,] It is rather for us, the living, {strike "to stand here,"}{insert "we here be dedica-"}</t>
+  </si>
+  <si>
+    <t>dedicated . . . us_] dedicated to the great task remaining before us_</t>
+  </si>
+  <si>
+    <t>they gave] they here, gave</t>
+  </si>
+  <si>
+    <t>that these] these</t>
+  </si>
+  <si>
+    <t>nation, under God, shall] nation, shall</t>
+  </si>
+  <si>
+    <t>{comma after "lives"  is definitely present in this version, very set apart from text}</t>
+  </si>
+  <si>
+    <t>NYT</t>
+  </si>
+  <si>
+    <t>Bl</t>
+  </si>
+  <si>
+    <t>Nic</t>
+  </si>
+  <si>
+    <t>Ev</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>ProQuest</t>
+  </si>
+  <si>
+    <t>PDF to JPG</t>
+  </si>
+  <si>
+    <t>PRESIDENT LINCOLN'S ADDRESS.</t>
+  </si>
+  <si>
+    <t>The President then delivered the following dedicatory speech:</t>
+  </si>
+  <si>
+    <t>Four score] Fourscore</t>
+  </si>
+  <si>
+    <t>Liberty,] liberty</t>
+  </si>
+  <si>
+    <t>equal.] equal. [Applause.]</t>
+  </si>
+  <si>
+    <t>have come] are met</t>
+  </si>
+  <si>
+    <t>dedicate_ we] dedicate. We</t>
+  </si>
+  <si>
+    <t>consecrate_] consecrate,</t>
+  </si>
+  <si>
+    <t>here,] ~</t>
+  </si>
+  <si>
+    <t>detract.] detract. [Applause.]</t>
+  </si>
+  <si>
+    <t>here.] here. [Applause.]</t>
+  </si>
+  <si>
+    <t>unfinished] refinished</t>
+  </si>
+  <si>
+    <t>which they who fought here have thus so far nobly advanced.] that they have thus so far nobly carried on. [Applause.]</t>
+  </si>
+  <si>
+    <t>us_] us,</t>
+  </si>
+  <si>
+    <t>devotion_] ~;</t>
+  </si>
+  <si>
+    <t>these] the</t>
+  </si>
+  <si>
+    <t>vain_ that this nation, under God, shall] vain; [applause] that the Nation shall under God</t>
+  </si>
+  <si>
+    <t>free,dom_] freedom,</t>
+  </si>
+  <si>
+    <t>people, for] people and for</t>
+  </si>
+  <si>
+    <t>earth.] earth, [Long continued applause.]</t>
+  </si>
+  <si>
+    <t>Three cheers were then given for the President and the Governors of the States.</t>
+  </si>
+  <si>
+    <t>Cemetery at Gettysburg.[ParaBreak][WhiteSpace]</t>
+  </si>
+  <si>
+    <t>Cemetery at Gettysburg] OMIT</t>
+  </si>
+  <si>
+    <t>place for those who here gave their lives</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +1071,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,8 +1127,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,92 +1417,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AS7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1">
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <v>7</v>
+      </c>
+      <c r="L1">
+        <v>8</v>
+      </c>
+      <c r="M1">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>11</v>
+      </c>
+      <c r="P1">
+        <v>12</v>
+      </c>
+      <c r="Q1">
+        <v>13</v>
+      </c>
+      <c r="R1">
         <v>14</v>
       </c>
+      <c r="S1">
+        <v>15</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+      <c r="U1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:45" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+    <row r="5" spans="1:45" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:45" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
+    <row r="7" spans="1:45" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/collation.xlsx
+++ b/collation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAFC466-4832-4980-A3AB-3684BB8CF960}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D70CE-E52F-4735-AC60-F1B692EA7742}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,21 +51,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="0" shapeId="0" xr:uid="{E6066AF5-5F4C-4311-886B-5278F76EC736}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Author:
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="AC3" authorId="0" shapeId="0" xr:uid="{387460AB-227C-4B27-AF62-0A0A772FDFAD}">
       <text>
         <r>
@@ -528,7 +513,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-note,] ~</t>
+note,]  ~</t>
         </r>
       </text>
     </comment>
@@ -675,22 +660,6 @@
   </si>
   <si>
     <t>so conceived and so dedicated, can long</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">endure. We are met on a great </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>battle-field</t>
-    </r>
   </si>
   <si>
     <t>of that war. We have come to dedicate a</t>
@@ -1057,6 +1026,22 @@
   </si>
   <si>
     <t>place for those who here gave their lives</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">endure. We are met on a great </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>battle_field</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1110,7 +1095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,12 +1112,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1421,11 +1410,14 @@
   <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="42" width="14.7109375" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1437,64 +1429,64 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>6</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>7</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>8</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>9</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>10</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="3">
         <v>11</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="3">
         <v>12</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="3">
         <v>13</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="3">
         <v>14</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="3">
         <v>15</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="3">
         <v>16</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1502,136 +1494,136 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AN2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AO2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:45" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1639,80 +1631,96 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP3" s="5"/>
+      <c r="AR3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:45" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1725,79 +1733,97 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AO4" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="AP4" s="5"/>
       <c r="AR4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:45" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1805,52 +1831,79 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" s="1" t="s">
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AJ5" s="1" t="s">
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP5" s="5"/>
+      <c r="AR5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:45" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1858,127 +1911,172 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
       <c r="AR6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS6" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:45" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Z7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AA7" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AB7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AE7" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AD7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK7" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK7" s="1" t="s">
+      <c r="AL7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AM7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AM7" s="1" t="s">
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="AO7" s="1" t="s">
+      <c r="AP7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
